--- a/StructureDefinition-ext-R5-DeviceDefinition.udiDeviceIdentifier.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.udiDeviceIdentifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -488,7 +488,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution` is part of an existing definition because parent element `DeviceDefinition.udiDeviceIdentifier` requires a component extension (e.g., if this element is used as a content reference).
-Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution` is will have a context of DeviceDefinition.udiDeviceIdentifier based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:marketDistribution.id</t>
@@ -513,7 +513,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution.marketPeriod` is part of an existing definition because parent element `DeviceDefinition.udiDeviceIdentifier.marketDistribution` requires a cross-version extension.
-Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution.marketPeriod` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution.marketPeriod` is will have a context of DeviceDefinition.udiDeviceIdentifier based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:marketDistribution.extension:marketPeriod.id</t>
@@ -557,7 +557,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution.subJurisdiction` is part of an existing definition because parent element `DeviceDefinition.udiDeviceIdentifier.marketDistribution` requires a cross-version extension.
-Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution.subJurisdiction` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution.subJurisdiction` is will have a context of DeviceDefinition.udiDeviceIdentifier based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:marketDistribution.extension:subJurisdiction.id</t>

--- a/StructureDefinition-ext-R5-DeviceDefinition.udiDeviceIdentifier.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.udiDeviceIdentifier.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="185">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,8 @@
 *  R4B: `DeviceDefinition.udiDeviceIdentifier` 0..* `BackboneElement`
 *  R4: `DeviceDefinition.udiDeviceIdentifier` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `DeviceDefinition.udiDeviceIdentifier` is mapped to FHIR R4 element `DeviceDefinition.udiDeviceIdentifier`.</t>
+Element `DeviceDefinition.udiDeviceIdentifier` has is mapped to FHIR R4 element `DeviceDefinition.udiDeviceIdentifier`, but has no comparisons.
+Note available implied context: `DeviceDefinition.packaging.udiDeviceIdentifier` because `DeviceDefinition.packaging.udiDeviceIdentifier` is defined as a content reference to `DeviceDefinition.udiDeviceIdentifier`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -142,7 +143,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Extension.extension</t>
+    <t>element:DeviceDefinition.udiDeviceIdentifier</t>
   </si>
   <si>
     <t>ID</t>
@@ -343,8 +344,8 @@
     <t>The identifier that is to be associated with every Device that references this DeviceDefintiion for the issuer and jurisdiction provided in the DeviceDefinition.udiDeviceIdentifier.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.udiDeviceIdentifier.deviceIdentifier` is part of an existing definition because parent element `DeviceDefinition.udiDeviceIdentifier` requires a component extension (e.g., if this element is used as a content reference).
-Element `DeviceDefinition.udiDeviceIdentifier.deviceIdentifier` is mapped to FHIR R4 element `DeviceDefinition.udiDeviceIdentifier.deviceIdentifier`.</t>
+    <t>Element `DeviceDefinition.udiDeviceIdentifier.deviceIdentifier` is part of an existing definition because parent element `DeviceDefinition.udiDeviceIdentifier` requires a cross-version extension.
+Element `DeviceDefinition.udiDeviceIdentifier.deviceIdentifier` has is mapped to FHIR R4 element `DeviceDefinition.udiDeviceIdentifier.deviceIdentifier`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:deviceIdentifier.id</t>
@@ -425,8 +426,8 @@
     <t>The organization that assigns the identifier algorithm.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.udiDeviceIdentifier.issuer` is part of an existing definition because parent element `DeviceDefinition.udiDeviceIdentifier` requires a component extension (e.g., if this element is used as a content reference).
-Element `DeviceDefinition.udiDeviceIdentifier.issuer` is mapped to FHIR R4 element `DeviceDefinition.udiDeviceIdentifier.issuer`.</t>
+    <t>Element `DeviceDefinition.udiDeviceIdentifier.issuer` is part of an existing definition because parent element `DeviceDefinition.udiDeviceIdentifier` requires a cross-version extension.
+Element `DeviceDefinition.udiDeviceIdentifier.issuer` has is mapped to FHIR R4 element `DeviceDefinition.udiDeviceIdentifier.issuer`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:issuer.id</t>
@@ -456,8 +457,8 @@
     <t>The jurisdiction to which the deviceIdentifier applies.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.udiDeviceIdentifier.jurisdiction` is part of an existing definition because parent element `DeviceDefinition.udiDeviceIdentifier` requires a component extension (e.g., if this element is used as a content reference).
-Element `DeviceDefinition.udiDeviceIdentifier.jurisdiction` is mapped to FHIR R4 element `DeviceDefinition.udiDeviceIdentifier.jurisdiction`.</t>
+    <t>Element `DeviceDefinition.udiDeviceIdentifier.jurisdiction` is part of an existing definition because parent element `DeviceDefinition.udiDeviceIdentifier` requires a cross-version extension.
+Element `DeviceDefinition.udiDeviceIdentifier.jurisdiction` has is mapped to FHIR R4 element `DeviceDefinition.udiDeviceIdentifier.jurisdiction`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:jurisdiction.id</t>
@@ -487,8 +488,8 @@
     <t>Indicates where and when the device is available on the market.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution` is part of an existing definition because parent element `DeviceDefinition.udiDeviceIdentifier` requires a component extension (e.g., if this element is used as a content reference).
-Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution` is will have a context of DeviceDefinition.udiDeviceIdentifier based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution` is part of an existing definition because parent element `DeviceDefinition.udiDeviceIdentifier` requires a cross-version extension.
+Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution` has a context of DeviceDefinition.udiDeviceIdentifier based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:marketDistribution.id</t>
@@ -513,7 +514,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution.marketPeriod` is part of an existing definition because parent element `DeviceDefinition.udiDeviceIdentifier.marketDistribution` requires a cross-version extension.
-Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution.marketPeriod` is will have a context of DeviceDefinition.udiDeviceIdentifier based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution.marketPeriod` has a context of DeviceDefinition.udiDeviceIdentifier based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:marketDistribution.extension:marketPeriod.id</t>
@@ -532,6 +533,9 @@
   </si>
   <si>
     <t>Extension.extension.extension.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.udiDeviceIdentifier.marketDistribution.marketPeriod</t>
   </si>
   <si>
     <t>Extension.extension:marketDistribution.extension:marketPeriod.value[x]</t>
@@ -557,7 +561,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution.subJurisdiction` is part of an existing definition because parent element `DeviceDefinition.udiDeviceIdentifier.marketDistribution` requires a cross-version extension.
-Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution.subJurisdiction` is will have a context of DeviceDefinition.udiDeviceIdentifier based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution.subJurisdiction` has a context of DeviceDefinition.udiDeviceIdentifier based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:marketDistribution.extension:subJurisdiction.id</t>
@@ -567,6 +571,9 @@
   </si>
   <si>
     <t>Extension.extension:marketDistribution.extension:subJurisdiction.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.udiDeviceIdentifier.marketDistribution.subJurisdiction</t>
   </si>
   <si>
     <t>Extension.extension:marketDistribution.extension:subJurisdiction.value[x]</t>
@@ -928,7 +935,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="197.69921875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="185.76953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -3616,7 +3623,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3678,10 +3685,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3704,7 +3711,7 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>156</v>
@@ -3781,13 +3788,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -3812,14 +3819,14 @@
         <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -3888,7 +3895,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>160</v>
@@ -3991,7 +3998,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>162</v>
@@ -4096,7 +4103,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>164</v>
@@ -4139,7 +4146,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4201,10 +4208,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4230,10 +4237,10 @@
         <v>115</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4304,7 +4311,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>114</v>
@@ -4347,7 +4354,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4409,7 +4416,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>123</v>
@@ -4435,13 +4442,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4643,13 +4650,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>

--- a/StructureDefinition-ext-R5-DeviceDefinition.udiDeviceIdentifier.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.udiDeviceIdentifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -128,7 +128,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-ext-R5-DeviceDefinition.udiDeviceIdentifier.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.udiDeviceIdentifier.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="183">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `DeviceDefinition.udiDeviceIdentifier` 0..* `BackboneElement`
 *  R4: `DeviceDefinition.udiDeviceIdentifier` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `DeviceDefinition.udiDeviceIdentifier` has is mapped to FHIR R4 element `DeviceDefinition.udiDeviceIdentifier`, but has no comparisons.
+Element `DeviceDefinition.udiDeviceIdentifier` is mapped to FHIR R4 element `DeviceDefinition.udiDeviceIdentifier` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
 Note available implied context: `DeviceDefinition.packaging.udiDeviceIdentifier` because `DeviceDefinition.packaging.udiDeviceIdentifier` is defined as a content reference to `DeviceDefinition.udiDeviceIdentifier`.</t>
   </si>
   <si>
@@ -128,7 +128,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -344,8 +344,8 @@
     <t>The identifier that is to be associated with every Device that references this DeviceDefintiion for the issuer and jurisdiction provided in the DeviceDefinition.udiDeviceIdentifier.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.udiDeviceIdentifier.deviceIdentifier` is part of an existing definition because parent element `DeviceDefinition.udiDeviceIdentifier` requires a cross-version extension.
-Element `DeviceDefinition.udiDeviceIdentifier.deviceIdentifier` has is mapped to FHIR R4 element `DeviceDefinition.udiDeviceIdentifier.deviceIdentifier`, but has no comparisons.</t>
+    <t>Element `DeviceDefinition.udiDeviceIdentifier.deviceIdentifier` is mapped to FHIR R4 element `DeviceDefinition.udiDeviceIdentifier.deviceIdentifier` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
+Note available implied context: `DeviceDefinition.packaging.udiDeviceIdentifier.deviceIdentifier` because `DeviceDefinition.packaging.udiDeviceIdentifier` is defined via a content reference to `DeviceDefinition.udiDeviceIdentifier`.</t>
   </si>
   <si>
     <t>Extension.extension:deviceIdentifier.id</t>
@@ -426,8 +426,8 @@
     <t>The organization that assigns the identifier algorithm.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.udiDeviceIdentifier.issuer` is part of an existing definition because parent element `DeviceDefinition.udiDeviceIdentifier` requires a cross-version extension.
-Element `DeviceDefinition.udiDeviceIdentifier.issuer` has is mapped to FHIR R4 element `DeviceDefinition.udiDeviceIdentifier.issuer`, but has no comparisons.</t>
+    <t>Element `DeviceDefinition.udiDeviceIdentifier.issuer` is mapped to FHIR R4 element `DeviceDefinition.udiDeviceIdentifier.issuer` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
+Note available implied context: `DeviceDefinition.packaging.udiDeviceIdentifier.issuer` because `DeviceDefinition.packaging.udiDeviceIdentifier` is defined via a content reference to `DeviceDefinition.udiDeviceIdentifier`.</t>
   </si>
   <si>
     <t>Extension.extension:issuer.id</t>
@@ -457,8 +457,8 @@
     <t>The jurisdiction to which the deviceIdentifier applies.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.udiDeviceIdentifier.jurisdiction` is part of an existing definition because parent element `DeviceDefinition.udiDeviceIdentifier` requires a cross-version extension.
-Element `DeviceDefinition.udiDeviceIdentifier.jurisdiction` has is mapped to FHIR R4 element `DeviceDefinition.udiDeviceIdentifier.jurisdiction`, but has no comparisons.</t>
+    <t>Element `DeviceDefinition.udiDeviceIdentifier.jurisdiction` is mapped to FHIR R4 element `DeviceDefinition.udiDeviceIdentifier.jurisdiction` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
+Note available implied context: `DeviceDefinition.packaging.udiDeviceIdentifier.jurisdiction` because `DeviceDefinition.packaging.udiDeviceIdentifier` is defined via a content reference to `DeviceDefinition.udiDeviceIdentifier`.</t>
   </si>
   <si>
     <t>Extension.extension:jurisdiction.id</t>
@@ -488,8 +488,8 @@
     <t>Indicates where and when the device is available on the market.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution` is part of an existing definition because parent element `DeviceDefinition.udiDeviceIdentifier` requires a cross-version extension.
-Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution` has a context of DeviceDefinition.udiDeviceIdentifier based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution` has a context of DeviceDefinition.udiDeviceIdentifier based on following the parent source element upwards and mapping to `DeviceDefinition`.
+Note available implied context: `DeviceDefinition.packaging.udiDeviceIdentifier` because `DeviceDefinition.packaging.udiDeviceIdentifier` is defined via a content reference to `DeviceDefinition.udiDeviceIdentifier`.</t>
   </si>
   <si>
     <t>Extension.extension:marketDistribution.id</t>
@@ -513,8 +513,8 @@
     <t>Begin and end dates for the commercial distribution of the device.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution.marketPeriod` is part of an existing definition because parent element `DeviceDefinition.udiDeviceIdentifier.marketDistribution` requires a cross-version extension.
-Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution.marketPeriod` has a context of DeviceDefinition.udiDeviceIdentifier based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution.marketPeriod` has a context of DeviceDefinition.udiDeviceIdentifier based on following the parent source element upwards and mapping to `DeviceDefinition`.
+Note available implied context: `DeviceDefinition.packaging.udiDeviceIdentifier` because `DeviceDefinition.packaging.udiDeviceIdentifier` is defined via a content reference to `DeviceDefinition.udiDeviceIdentifier`.</t>
   </si>
   <si>
     <t>Extension.extension:marketDistribution.extension:marketPeriod.id</t>
@@ -533,9 +533,6 @@
   </si>
   <si>
     <t>Extension.extension.extension.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.udiDeviceIdentifier.marketDistribution.marketPeriod</t>
   </si>
   <si>
     <t>Extension.extension:marketDistribution.extension:marketPeriod.value[x]</t>
@@ -560,8 +557,8 @@
     <t>National state or territory to which the marketDistribution recers, typically where the device is commercialized.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution.subJurisdiction` is part of an existing definition because parent element `DeviceDefinition.udiDeviceIdentifier.marketDistribution` requires a cross-version extension.
-Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution.subJurisdiction` has a context of DeviceDefinition.udiDeviceIdentifier based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.udiDeviceIdentifier.marketDistribution.subJurisdiction` has a context of DeviceDefinition.udiDeviceIdentifier based on following the parent source element upwards and mapping to `DeviceDefinition`.
+Note available implied context: `DeviceDefinition.packaging.udiDeviceIdentifier` because `DeviceDefinition.packaging.udiDeviceIdentifier` is defined via a content reference to `DeviceDefinition.udiDeviceIdentifier`.</t>
   </si>
   <si>
     <t>Extension.extension:marketDistribution.extension:subJurisdiction.id</t>
@@ -571,9 +568,6 @@
   </si>
   <si>
     <t>Extension.extension:marketDistribution.extension:subJurisdiction.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.udiDeviceIdentifier.marketDistribution.subJurisdiction</t>
   </si>
   <si>
     <t>Extension.extension:marketDistribution.extension:subJurisdiction.value[x]</t>
@@ -935,7 +929,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="185.76953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="184.90625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -3623,7 +3617,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3685,10 +3679,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3711,7 +3705,7 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>156</v>
@@ -3788,13 +3782,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -3819,14 +3813,14 @@
         <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -3895,7 +3889,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>160</v>
@@ -3998,7 +3992,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>162</v>
@@ -4103,7 +4097,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>164</v>
@@ -4146,7 +4140,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4208,10 +4202,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4237,10 +4231,10 @@
         <v>115</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4311,7 +4305,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>114</v>
@@ -4354,7 +4348,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4416,7 +4410,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>123</v>
@@ -4442,13 +4436,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4650,13 +4644,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
